--- a/biology/Botanique/Botryococcus/Botryococcus.xlsx
+++ b/biology/Botanique/Botryococcus/Botryococcus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Botryococcus est un genre d'algues vertes. Les cellules forment un agrégat de forme irrégulière ; elles sont connectées par de fins filaments. Le corps de la cellule est ovoïde, de 6 à 10 μm de long et de 3 à 6 μm de large.
-L'espèce holotype est Botryococcus braunii[1].
+L'espèce holotype est Botryococcus braunii.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (4 avril 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (4 avril 2018) :
 Botryococcus australis J.Komárek &amp; P.Marvan
 Botryococcus balkachicus Zalessky
 Botryococcus braunii Kützing - espèce type
@@ -530,7 +544,7 @@
 Botryococcus pusillus Goor
 Botryococcus terribilis Komárek &amp; Marvan
 Botryococcus terricola Klebs
-Selon BioLib                    (4 avril 2018)[3] :
+Selon BioLib                    (4 avril 2018) :
 Botryococcus australis J. Komárek &amp; P. Marvan
 Botryococcus braunii Kützing
 Botryococcus calcareus W. West
@@ -543,16 +557,16 @@
 Botryococcus protuberans W. West &amp; G.S. West
 Botryococcus terribilis J. Komárek &amp; P. Marvan
 Botryococcus terricola Klebs
-Selon ITIS      (4 avril 2018)[4] :
+Selon ITIS      (4 avril 2018) :
 Botryococcus braunii Kuetzing
 Botryococcus protuberans W. West &amp; G. S. Smith
 Botryococcus sudeticus Lemmermann
-Selon NCBI  (4 avril 2018)[5] :
+Selon NCBI  (4 avril 2018) :
 Botryococcus braunii Botrycoccus braunii
 Botryococcus terribilis Komarek &amp; Marvan, 1992
-Selon Paleobiology Database                   (4 avril 2018)[6] :
+Selon Paleobiology Database                   (4 avril 2018) :
 Botryococcus braunii
-Selon World Register of Marine Species                               (4 avril 2018)[7] :
+Selon World Register of Marine Species                               (4 avril 2018) :
 Botryococcus australis J.Komárek &amp; P.Marvan, 1992
 Botryococcus braunii Kützing, 1849
 Botryococcus calcareus West, 1892
